--- a/templates/nongtrairauqua.xlsx
+++ b/templates/nongtrairauqua.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>STT</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Số chứng nhận tiêu chuẩn</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
 </sst>
 </file>
@@ -380,26 +383,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.21875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="27.6640625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="18.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="27.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,6 +430,9 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
